--- a/notebook/results/v1/Model-v1-Results.xlsx
+++ b/notebook/results/v1/Model-v1-Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAW\Bachelorarbeit\TranslationT5\notebook\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAW\Bachelorarbeit\TranslationT5\notebook\results\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD186D36-B92E-4BCF-969F-A4555172BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A80F7-D14E-4078-9AFD-DBCD5F662784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="276" windowWidth="17640" windowHeight="8904" xr2:uid="{5C25365D-9598-4416-8DEF-A2E75805290F}"/>
   </bookViews>
